--- a/data/trans_orig/IP16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0123472D-8088-42ED-B4B0-0697A8E9FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECADFC18-D89B-4AD8-B20F-156D22AB5D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5CBEAFBD-EB41-4B8D-9BE7-6B1EA3DBFB93}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1BAF2AE9-6543-4183-A97D-515412E69AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>51,75%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>71,1%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>48,25%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>45,62%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,120 +356,6 @@
     <t>50,91%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
     <t>58,77%</t>
   </si>
   <si>
@@ -413,6 +413,93 @@
     <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
     <t>64,94%</t>
   </si>
   <si>
@@ -467,52 +554,58 @@
     <t>49,27%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
   </si>
   <si>
     <t>60,85%</t>
@@ -569,99 +662,6 @@
     <t>49,53%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
     <t>60,98%</t>
   </si>
   <si>
@@ -713,6 +713,96 @@
     <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2015 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
     <t>59,87%</t>
   </si>
   <si>
@@ -767,58 +857,58 @@
     <t>44,98%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>64,63%</t>
@@ -875,96 +965,6 @@
     <t>48,65%</t>
   </si>
   <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
     <t>63,26%</t>
   </si>
   <si>
@@ -1016,6 +1016,102 @@
     <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
     <t>53,64%</t>
   </si>
   <si>
@@ -1070,58 +1166,58 @@
     <t>54,09%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
   </si>
   <si>
     <t>51,49%</t>
@@ -1176,102 +1272,6 @@
   </si>
   <si>
     <t>57,9%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
   </si>
   <si>
     <t>55,92%</t>
@@ -1711,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94D8FE0-E227-4E35-86CF-93CA730B36D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB793CE-D34E-428C-B7E9-CE1F88AB3887}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1829,10 +1829,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>21377</v>
+        <v>3144</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1844,10 +1844,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>31094</v>
+        <v>4832</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1859,10 +1859,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>52471</v>
+        <v>7976</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1880,10 +1880,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>19929</v>
+        <v>1643</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1895,10 +1895,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>10553</v>
+        <v>4862</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1910,10 +1910,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>30481</v>
+        <v>6505</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1931,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1946,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1961,10 +1961,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2139,49 +2139,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>23780</v>
+        <v>21377</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>14457</v>
+        <v>31094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>38237</v>
+        <v>52471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,49 +2190,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>15037</v>
+        <v>19929</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>11220</v>
+        <v>10553</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>26257</v>
+        <v>30481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,10 +2241,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2256,10 +2256,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2271,10 +2271,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2288,55 +2288,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>3144</v>
+        <v>19407</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>4832</v>
+        <v>16239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>7976</v>
+        <v>35646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,49 +2345,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>1643</v>
+        <v>15716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>4862</v>
+        <v>8925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>6505</v>
+        <v>24640</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,10 +2396,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2411,10 +2411,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2426,10 +2426,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2443,55 +2443,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>19407</v>
+        <v>23780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>16239</v>
+        <v>14457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>35646</v>
+        <v>38237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,25 +2500,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>15716</v>
+        <v>15037</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>8925</v>
+        <v>11220</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -2530,10 +2530,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>24640</v>
+        <v>26257</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2551,10 +2551,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2566,10 +2566,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2581,10 +2581,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2769,7 +2769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49571A38-6407-412A-87D8-ADC5A4ED1DC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E07627C-D12D-47BC-9B24-56762FA1A101}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2887,49 +2887,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>33893</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4488</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="7">
-        <v>42</v>
-      </c>
-      <c r="I4" s="7">
-        <v>27541</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7140</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M4" s="7">
-        <v>89</v>
-      </c>
-      <c r="N4" s="7">
-        <v>61433</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +2938,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>18301</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3342</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3342</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="7">
-        <v>37</v>
-      </c>
-      <c r="I5" s="7">
-        <v>24842</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="7">
-        <v>64</v>
-      </c>
-      <c r="N5" s="7">
-        <v>43144</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,10 +2989,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>52194</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3004,10 +3004,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>52383</v>
+        <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3019,10 +3019,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>104577</v>
+        <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3048,13 +3048,13 @@
         <v>19689</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -3063,13 +3063,13 @@
         <v>21007</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3078,13 +3078,13 @@
         <v>40696</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3099,13 @@
         <v>17006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3114,13 +3114,13 @@
         <v>12204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -3129,13 +3129,13 @@
         <v>29210</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,49 +3197,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>30389</v>
+        <v>33893</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7">
+        <v>42</v>
+      </c>
+      <c r="I10" s="7">
+        <v>27541</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>89</v>
+      </c>
+      <c r="N10" s="7">
+        <v>61433</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="7">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7">
-        <v>29966</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7">
-        <v>60355</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3248,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>19552</v>
+        <v>18301</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="7">
+        <v>37</v>
+      </c>
+      <c r="I11" s="7">
+        <v>24842</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>64</v>
+      </c>
+      <c r="N11" s="7">
+        <v>43144</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="7">
-        <v>28</v>
-      </c>
-      <c r="I11" s="7">
-        <v>20818</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M11" s="7">
-        <v>54</v>
-      </c>
-      <c r="N11" s="7">
-        <v>40370</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,10 +3299,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>49941</v>
+        <v>52194</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3314,10 +3314,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7">
-        <v>50784</v>
+        <v>52383</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3329,10 +3329,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>100725</v>
+        <v>104577</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3346,55 +3346,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>30888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="7">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25925</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4488</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>90</v>
+      </c>
+      <c r="N13" s="7">
+        <v>56813</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7140</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,40 +3403,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>20340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>27</v>
+      </c>
+      <c r="I14" s="7">
+        <v>17504</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3342</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>3342</v>
+        <v>37844</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>186</v>
@@ -3454,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>51228</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3469,10 +3469,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7">
-        <v>7830</v>
+        <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3484,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10482</v>
+        <v>94657</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3501,16 +3501,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>30888</v>
+        <v>30389</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>189</v>
@@ -3522,10 +3522,10 @@
         <v>191</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7">
-        <v>25925</v>
+        <v>29966</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>192</v>
@@ -3537,10 +3537,10 @@
         <v>194</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="N16" s="7">
-        <v>56813</v>
+        <v>60355</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>195</v>
@@ -3558,10 +3558,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>20340</v>
+        <v>19552</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>198</v>
@@ -3573,10 +3573,10 @@
         <v>200</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>17504</v>
+        <v>20818</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>201</v>
@@ -3588,10 +3588,10 @@
         <v>203</v>
       </c>
       <c r="M17" s="7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N17" s="7">
-        <v>37844</v>
+        <v>40370</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>204</v>
@@ -3609,10 +3609,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>51228</v>
+        <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3624,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="7">
-        <v>43429</v>
+        <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3639,10 +3639,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N18" s="7">
-        <v>94657</v>
+        <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3701,7 +3701,7 @@
         <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>214</v>
@@ -3755,7 +3755,7 @@
         <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +3827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CAFE30-8E52-457D-AA67-C1222FE0D8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F080724-8033-424F-A8D3-CFE45A29CB0E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3945,10 +3945,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>29792</v>
+        <v>3509</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>224</v>
@@ -3957,37 +3957,37 @@
         <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6479</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="7">
-        <v>55</v>
-      </c>
-      <c r="I4" s="7">
-        <v>34421</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9989</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M4" s="7">
-        <v>99</v>
-      </c>
-      <c r="N4" s="7">
-        <v>64213</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>19969</v>
+        <v>1003</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1203</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2205</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="H5" s="7">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18997</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M5" s="7">
-        <v>61</v>
-      </c>
-      <c r="N5" s="7">
-        <v>38966</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>49761</v>
+        <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4062,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>53418</v>
+        <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4077,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>103179</v>
+        <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4106,13 +4106,13 @@
         <v>17836</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4121,13 +4121,13 @@
         <v>13761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -4136,13 +4136,13 @@
         <v>31597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4157,13 @@
         <v>5631</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4172,13 +4172,13 @@
         <v>10621</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4187,13 +4187,13 @@
         <v>16252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4255,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>24086</v>
+        <v>29792</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="7">
+        <v>55</v>
+      </c>
+      <c r="I10" s="7">
+        <v>34421</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" s="7">
+        <v>99</v>
+      </c>
+      <c r="N10" s="7">
+        <v>64213</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25494</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M10" s="7">
-        <v>68</v>
-      </c>
-      <c r="N10" s="7">
-        <v>49580</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,49 +4306,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>13184</v>
+        <v>19969</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="7">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7">
+        <v>18997</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M11" s="7">
+        <v>61</v>
+      </c>
+      <c r="N11" s="7">
+        <v>38966</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18336</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M11" s="7">
-        <v>44</v>
-      </c>
-      <c r="N11" s="7">
-        <v>31520</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,10 +4357,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>37270</v>
+        <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4372,10 +4372,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I12" s="7">
-        <v>43830</v>
+        <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4387,10 +4387,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="N12" s="7">
-        <v>81100</v>
+        <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4404,55 +4404,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>3509</v>
+        <v>18008</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="7">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19933</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M13" s="7">
+        <v>61</v>
+      </c>
+      <c r="N13" s="7">
+        <v>37942</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6479</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>11</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9989</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,46 +4461,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>1003</v>
+        <v>14366</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="7">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>14015</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1203</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>47</v>
+      </c>
+      <c r="N14" s="7">
+        <v>28381</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2205</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>289</v>
@@ -4512,10 +4512,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7">
-        <v>4512</v>
+        <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4527,10 +4527,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I15" s="7">
-        <v>7682</v>
+        <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4542,10 +4542,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N15" s="7">
-        <v>12194</v>
+        <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4559,16 +4559,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>18008</v>
+        <v>24086</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>290</v>
@@ -4580,10 +4580,10 @@
         <v>292</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>19933</v>
+        <v>25494</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>293</v>
@@ -4595,10 +4595,10 @@
         <v>295</v>
       </c>
       <c r="M16" s="7">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N16" s="7">
-        <v>37942</v>
+        <v>49580</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>296</v>
@@ -4616,10 +4616,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>14366</v>
+        <v>13184</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>299</v>
@@ -4631,10 +4631,10 @@
         <v>301</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>14015</v>
+        <v>18336</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>302</v>
@@ -4646,10 +4646,10 @@
         <v>304</v>
       </c>
       <c r="M17" s="7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N17" s="7">
-        <v>28381</v>
+        <v>31520</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>305</v>
@@ -4667,10 +4667,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>32374</v>
+        <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4682,10 +4682,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>33948</v>
+        <v>43830</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4697,10 +4697,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N18" s="7">
-        <v>66323</v>
+        <v>81100</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4756,7 +4756,7 @@
         <v>193321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>314</v>
@@ -4807,7 +4807,7 @@
         <v>117324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>322</v>
@@ -4885,7 +4885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482042A-FB72-422D-A98D-504C90C25D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D51DF1-A015-49F7-8BDC-0A1166A3545B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,10 +5003,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>32636</v>
+        <v>3148</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>325</v>
@@ -5015,37 +5015,37 @@
         <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5191</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H4" s="7">
-        <v>33</v>
-      </c>
-      <c r="I4" s="7">
-        <v>22769</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8338</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M4" s="7">
-        <v>81</v>
-      </c>
-      <c r="N4" s="7">
-        <v>55405</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,49 +5054,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>28209</v>
+        <v>1019</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1021</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="7">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17404</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="M5" s="7">
-        <v>72</v>
-      </c>
-      <c r="N5" s="7">
-        <v>45613</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,10 +5105,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5120,10 +5120,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5135,10 +5135,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5164,13 +5164,13 @@
         <v>15077</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5179,13 +5179,13 @@
         <v>9820</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5194,13 +5194,13 @@
         <v>24897</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5215,13 @@
         <v>6527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5230,13 +5230,13 @@
         <v>9503</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -5245,13 +5245,13 @@
         <v>16030</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,49 +5313,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>16696</v>
+        <v>32636</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H10" s="7">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7">
+        <v>22769</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>81</v>
+      </c>
+      <c r="N10" s="7">
+        <v>55405</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16591</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="M10" s="7">
-        <v>50</v>
-      </c>
-      <c r="N10" s="7">
-        <v>33288</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,49 +5364,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>15731</v>
+        <v>28209</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="7">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17404</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>72</v>
+      </c>
+      <c r="N11" s="7">
+        <v>45613</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H11" s="7">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14218</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M11" s="7">
-        <v>43</v>
-      </c>
-      <c r="N11" s="7">
-        <v>29949</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,10 +5415,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5430,10 +5430,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5445,10 +5445,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5462,55 +5462,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>3148</v>
+        <v>28919</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="7">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7">
+        <v>28554</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5191</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>64</v>
+      </c>
+      <c r="N13" s="7">
+        <v>57472</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8338</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,40 +5519,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>1019</v>
+        <v>24575</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7">
+        <v>29341</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1021</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>389</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>2040</v>
+        <v>53916</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>390</v>
@@ -5570,10 +5570,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5585,10 +5585,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5600,10 +5600,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5617,16 +5617,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>28919</v>
+        <v>16696</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>393</v>
@@ -5638,10 +5638,10 @@
         <v>395</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>28554</v>
+        <v>16591</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>396</v>
@@ -5653,10 +5653,10 @@
         <v>398</v>
       </c>
       <c r="M16" s="7">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>57472</v>
+        <v>33288</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>399</v>
@@ -5674,10 +5674,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>24575</v>
+        <v>15731</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>402</v>
@@ -5689,10 +5689,10 @@
         <v>404</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>29341</v>
+        <v>14218</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>405</v>
@@ -5704,10 +5704,10 @@
         <v>407</v>
       </c>
       <c r="M17" s="7">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>53916</v>
+        <v>29949</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>408</v>
@@ -5725,10 +5725,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5740,10 +5740,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5755,10 +5755,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5799,7 +5799,7 @@
         <v>82925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>414</v>
@@ -5850,7 +5850,7 @@
         <v>71487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>422</v>

--- a/data/trans_orig/IP16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECADFC18-D89B-4AD8-B20F-156D22AB5D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87836462-1D9B-4839-BC45-26CFCFAE43DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1BAF2AE9-6543-4183-A97D-515412E69AEC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A5BFCBA-158A-4246-A034-52E13EE7054B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="427">
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="416">
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,6 +71,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,49 +116,19 @@
     <t>49,84%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,280 +137,313 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
     <t>70,61%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
     <t>51,75%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
     <t>55,25%</t>
   </si>
   <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>59,13%</t>
   </si>
   <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
     <t>61,26%</t>
   </si>
   <si>
-    <t>72,4%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -419,907 +452,841 @@
     <t>57,32%</t>
   </si>
   <si>
-    <t>89,04%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>68,11%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
   </si>
   <si>
     <t>53,66%</t>
   </si>
   <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2015 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
     <t>53,7%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
+    <t>50,04%</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1297,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1426,39 +1393,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1510,7 +1477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1621,13 +1588,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1636,6 +1596,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1700,19 +1667,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB793CE-D34E-428C-B7E9-CE1F88AB3887}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14238720-F35D-4B6E-9BAC-46C4C76B91BE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1829,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3144</v>
+        <v>1643</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1847,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>4832</v>
+        <v>4862</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1859,10 +1846,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>7976</v>
+        <v>6505</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1880,10 +1867,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1643</v>
+        <v>3144</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1898,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>4862</v>
+        <v>4832</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1910,10 +1897,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>6505</v>
+        <v>7976</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1984,10 +1971,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>16868</v>
+        <v>7019</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1999,10 +1986,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>17389</v>
+        <v>5735</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2014,10 +2001,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>34256</v>
+        <v>12755</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2035,10 +2022,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>7019</v>
+        <v>16868</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2050,10 +2037,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>5735</v>
+        <v>17389</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2065,10 +2052,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>12755</v>
+        <v>34256</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2139,10 +2126,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>21377</v>
+        <v>19929</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2154,10 +2141,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>31094</v>
+        <v>10553</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2169,10 +2156,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>52471</v>
+        <v>30481</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2190,10 +2177,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>19929</v>
+        <v>21377</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2205,10 +2192,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
-        <v>10553</v>
+        <v>31094</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2220,10 +2207,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>30481</v>
+        <v>52471</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2294,10 +2281,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>19407</v>
+        <v>15716</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2309,10 +2296,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>16239</v>
+        <v>8925</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2324,10 +2311,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>35646</v>
+        <v>24640</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2345,10 +2332,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>15716</v>
+        <v>19407</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2360,10 +2347,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>8925</v>
+        <v>16239</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2375,10 +2362,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>24640</v>
+        <v>35646</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2449,49 +2436,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>23780</v>
+        <v>15037</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>14457</v>
+        <v>11220</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>38237</v>
+        <v>26257</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,49 +2487,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>15037</v>
+        <v>23780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>11220</v>
+        <v>14457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>26257</v>
+        <v>38237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,49 +2591,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D19" s="7">
-        <v>84576</v>
+        <v>59343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>84010</v>
+        <v>41295</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="N19" s="7">
-        <v>168586</v>
+        <v>100638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,49 +2642,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D20" s="7">
-        <v>59343</v>
+        <v>84576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="I20" s="7">
-        <v>41295</v>
+        <v>84010</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="N20" s="7">
-        <v>100638</v>
+        <v>168586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,6 +2736,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2769,8 +2761,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E07627C-D12D-47BC-9B24-56762FA1A101}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E264508-17E1-4859-9E10-74DD78F5DF17}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2786,7 +2778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2887,49 +2879,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>4488</v>
+        <v>3342</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>7140</v>
+        <v>3342</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +2930,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>3342</v>
+        <v>4488</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>3342</v>
+        <v>7140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,49 +3034,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>19689</v>
+        <v>17006</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>21007</v>
+        <v>12204</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>40696</v>
+        <v>29210</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,49 +3085,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>17006</v>
+        <v>19689</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>12204</v>
+        <v>21007</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N8" s="7">
-        <v>29210</v>
+        <v>40696</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,49 +3189,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>33893</v>
+        <v>18301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>27541</v>
+        <v>24842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>61433</v>
+        <v>43144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3240,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>18301</v>
+        <v>33893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>24842</v>
+        <v>27541</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="N11" s="7">
-        <v>43144</v>
+        <v>61433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,49 +3344,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>30888</v>
+        <v>20340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>25925</v>
+        <v>17504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>56813</v>
+        <v>37844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,49 +3395,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>20340</v>
+        <v>30888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>17504</v>
+        <v>25925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>37844</v>
+        <v>56813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,49 +3499,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>30389</v>
+        <v>19552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>29966</v>
+        <v>20818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="N16" s="7">
-        <v>60355</v>
+        <v>40370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,49 +3550,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>19552</v>
+        <v>30389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>20818</v>
+        <v>29966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>40370</v>
+        <v>60355</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,49 +3654,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7">
-        <v>117511</v>
+        <v>75199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>108926</v>
+        <v>78711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="N19" s="7">
-        <v>226437</v>
+        <v>153910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,49 +3705,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="D20" s="7">
-        <v>75199</v>
+        <v>117511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="I20" s="7">
-        <v>78711</v>
+        <v>108926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="N20" s="7">
-        <v>153910</v>
+        <v>226437</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,6 +3799,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3827,8 +3824,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F080724-8033-424F-A8D3-CFE45A29CB0E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C70F5E-4425-46B3-9CD6-6EEF614D20CC}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3844,7 +3841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3945,49 +3942,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3509</v>
+        <v>1003</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>6479</v>
+        <v>1203</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>9989</v>
+        <v>2205</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +3993,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1003</v>
+        <v>3509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>1203</v>
+        <v>6479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>2205</v>
+        <v>9989</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,49 +4097,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>17836</v>
+        <v>5631</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>13761</v>
+        <v>10621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>31597</v>
+        <v>16252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,49 +4148,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>5631</v>
+        <v>17836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>10621</v>
+        <v>13761</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N8" s="7">
-        <v>16252</v>
+        <v>31597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4252,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>29792</v>
+        <v>19969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>34421</v>
+        <v>18997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>64213</v>
+        <v>38966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,49 +4303,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>19969</v>
+        <v>29792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7">
-        <v>18997</v>
+        <v>34421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="N11" s="7">
-        <v>38966</v>
+        <v>64213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,49 +4407,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>18008</v>
+        <v>14366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>19933</v>
+        <v>14015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>37942</v>
+        <v>28381</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,49 +4458,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>14366</v>
+        <v>18008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>14015</v>
+        <v>19933</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>28381</v>
+        <v>37942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,49 +4562,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>24086</v>
+        <v>13184</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>25494</v>
+        <v>18336</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N16" s="7">
-        <v>49580</v>
+        <v>31520</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,49 +4613,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>13184</v>
+        <v>24086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>18336</v>
+        <v>25494</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>31520</v>
+        <v>49580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,43 +4717,43 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7">
-        <v>93232</v>
+        <v>54153</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="I19" s="7">
-        <v>100087</v>
+        <v>63172</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="N19" s="7">
-        <v>193321</v>
+        <v>117324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>314</v>
@@ -4771,10 +4768,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D20" s="7">
-        <v>54153</v>
+        <v>93232</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>316</v>
@@ -4786,34 +4783,34 @@
         <v>318</v>
       </c>
       <c r="H20" s="7">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="I20" s="7">
-        <v>63172</v>
+        <v>100087</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>283</v>
+      </c>
+      <c r="N20" s="7">
+        <v>193321</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="M20" s="7">
-        <v>177</v>
-      </c>
-      <c r="N20" s="7">
-        <v>117324</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,6 +4862,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4885,8 +4887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D51DF1-A015-49F7-8BDC-0A1166A3545B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2BC0FD-D80A-470B-8DC6-00A5A271A4D3}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4902,7 +4904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5003,49 +5005,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3148</v>
+        <v>1019</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1021</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5191</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8338</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,49 +5056,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1019</v>
+        <v>3148</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5191</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1021</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8338</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2040</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,49 +5160,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>15077</v>
+        <v>6527</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9503</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H7" s="7">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9820</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>28</v>
+      </c>
+      <c r="N7" s="7">
+        <v>16030</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="M7" s="7">
-        <v>37</v>
-      </c>
-      <c r="N7" s="7">
-        <v>24897</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,49 +5211,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>6527</v>
+        <v>15077</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" s="7">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9820</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H8" s="7">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7">
-        <v>9503</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>37</v>
+      </c>
+      <c r="N8" s="7">
+        <v>24897</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="M8" s="7">
-        <v>28</v>
-      </c>
-      <c r="N8" s="7">
-        <v>16030</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,49 +5315,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>32636</v>
+        <v>28209</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="7">
+        <v>29</v>
+      </c>
+      <c r="I10" s="7">
+        <v>17404</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="H10" s="7">
-        <v>33</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22769</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>72</v>
+      </c>
+      <c r="N10" s="7">
+        <v>45613</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7">
-        <v>55405</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,49 +5366,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>28209</v>
+        <v>32636</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H11" s="7">
+        <v>33</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22769</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>81</v>
+      </c>
+      <c r="N11" s="7">
+        <v>55405</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17404</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M11" s="7">
-        <v>72</v>
-      </c>
-      <c r="N11" s="7">
-        <v>45613</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,49 +5470,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>28919</v>
+        <v>24575</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7">
+        <v>29341</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M13" s="7">
+        <v>83</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53916</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28554</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M13" s="7">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7">
-        <v>57472</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,49 +5521,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>24575</v>
+        <v>28919</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>29341</v>
+        <v>28554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N14" s="7">
-        <v>53916</v>
+        <v>57472</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,49 +5625,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>16696</v>
+        <v>15731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>16591</v>
+        <v>14218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>33288</v>
+        <v>29949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,49 +5676,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>15731</v>
+        <v>16696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>14218</v>
+        <v>16591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>29949</v>
+        <v>33288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,49 +5780,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D19" s="7">
-        <v>96476</v>
+        <v>76061</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I19" s="7">
-        <v>82925</v>
+        <v>71487</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="N19" s="7">
-        <v>179401</v>
+        <v>147547</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,49 +5831,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>76061</v>
+        <v>96476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I20" s="7">
-        <v>71487</v>
+        <v>82925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="N20" s="7">
-        <v>147547</v>
+        <v>179401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,6 +5925,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87836462-1D9B-4839-BC45-26CFCFAE43DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F87744-4267-4860-BE8A-0B28E605A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A5BFCBA-158A-4246-A034-52E13EE7054B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A8FB7EA-A47E-4DA4-AEC8-8A8D0329CC60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="426">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,28%</t>
+    <t>83,08%</t>
   </si>
   <si>
     <t>50,16%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>65,68%</t>
   </si>
   <si>
-    <t>16,72%</t>
+    <t>16,92%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,1177 +116,1207 @@
     <t>49,84%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>29,39%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>13,36%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>41,92%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>63,53%</t>
   </si>
   <si>
     <t>58,74%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>40,3%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>39,98%</t>
   </si>
   <si>
-    <t>32,26%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>30,21%</t>
   </si>
   <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
   <si>
     <t>69,79%</t>
   </si>
   <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>62,09%</t>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>46,3%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
   </si>
   <si>
     <t>45,13%</t>
   </si>
   <si>
-    <t>49,96%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>53,7%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>50,04%</t>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14238720-F35D-4B6E-9BAC-46C4C76B91BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1770CBA4-FD73-4328-8E2A-DADA5E875850}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2761,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E264508-17E1-4859-9E10-74DD78F5DF17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE4AB59-668F-47B8-A369-69447C415401}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3058,10 +3088,10 @@
         <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -3070,13 +3100,13 @@
         <v>29210</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3121,13 @@
         <v>19689</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -3109,10 +3139,10 @@
         <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -3121,13 +3151,13 @@
         <v>40696</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3225,13 @@
         <v>18301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3210,13 +3240,13 @@
         <v>24842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -3225,13 +3255,13 @@
         <v>43144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3276,13 @@
         <v>33893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3261,13 +3291,13 @@
         <v>27541</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>89</v>
@@ -3276,13 +3306,13 @@
         <v>61433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3380,13 @@
         <v>20340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3365,13 +3395,13 @@
         <v>17504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -3380,13 +3410,13 @@
         <v>37844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3431,13 @@
         <v>30888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3416,13 +3446,13 @@
         <v>25925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -3431,13 +3461,13 @@
         <v>56813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3535,13 @@
         <v>19552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3520,13 +3550,13 @@
         <v>20818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -3535,13 +3565,13 @@
         <v>40370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3586,13 @@
         <v>30389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3571,13 +3601,13 @@
         <v>29966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -3586,13 +3616,13 @@
         <v>60355</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3690,13 @@
         <v>75199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -3675,13 +3705,13 @@
         <v>78711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>219</v>
@@ -3690,13 +3720,13 @@
         <v>153910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,10 +3741,10 @@
         <v>117511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>221</v>
@@ -3824,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C70F5E-4425-46B3-9CD6-6EEF614D20CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE313143-768A-41BF-9F4F-D75C2323C57F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4124,7 +4154,7 @@
         <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4133,13 +4163,13 @@
         <v>16252</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4184,13 @@
         <v>17836</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4169,13 +4199,13 @@
         <v>13761</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -4184,13 +4214,13 @@
         <v>31597</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4288,13 @@
         <v>19969</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4273,13 +4303,13 @@
         <v>18997</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4288,13 +4318,13 @@
         <v>38966</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4339,13 @@
         <v>29792</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -4324,13 +4354,13 @@
         <v>34421</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -4339,13 +4369,13 @@
         <v>64213</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4443,13 @@
         <v>14366</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4428,13 +4458,13 @@
         <v>14015</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4443,13 +4473,13 @@
         <v>28381</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4494,13 @@
         <v>18008</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -4479,13 +4509,13 @@
         <v>19933</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -4494,13 +4524,13 @@
         <v>37942</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4598,13 @@
         <v>13184</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -4583,13 +4613,13 @@
         <v>18336</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4598,13 +4628,13 @@
         <v>31520</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4649,13 @@
         <v>24086</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -4634,13 +4664,13 @@
         <v>25494</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -4649,10 +4679,10 @@
         <v>49580</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>308</v>
@@ -4744,7 +4774,7 @@
         <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>177</v>
@@ -4753,13 +4783,13 @@
         <v>117324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4804,13 @@
         <v>93232</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -4789,13 +4819,13 @@
         <v>100087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -4804,13 +4834,13 @@
         <v>193321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2BC0FD-D80A-470B-8DC6-00A5A271A4D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F6ED24-4AA5-4999-A625-975F1E477D46}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4904,7 +4934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5011,13 +5041,13 @@
         <v>1019</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5026,13 +5056,13 @@
         <v>1021</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5041,13 +5071,13 @@
         <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,10 +5092,10 @@
         <v>3148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5077,10 +5107,10 @@
         <v>5191</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5092,13 +5122,13 @@
         <v>8338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5196,13 @@
         <v>6527</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5181,13 +5211,13 @@
         <v>9503</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5196,13 +5226,13 @@
         <v>16030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5247,13 @@
         <v>15077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5232,13 +5262,13 @@
         <v>9820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -5247,13 +5277,13 @@
         <v>24897</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5351,13 @@
         <v>28209</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -5336,13 +5366,13 @@
         <v>17404</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -5351,13 +5381,13 @@
         <v>45613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5402,13 @@
         <v>32636</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -5387,13 +5417,13 @@
         <v>22769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -5402,13 +5432,13 @@
         <v>55405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5506,13 @@
         <v>24575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -5491,13 +5521,13 @@
         <v>29341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5506,13 +5536,13 @@
         <v>53916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>99</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5557,13 @@
         <v>28919</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5542,13 +5572,13 @@
         <v>28554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -5557,13 +5587,13 @@
         <v>57472</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5661,13 @@
         <v>15731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -5646,13 +5676,13 @@
         <v>14218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -5661,13 +5691,13 @@
         <v>29949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5712,13 @@
         <v>16696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5697,13 +5727,13 @@
         <v>16591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -5712,13 +5742,13 @@
         <v>33288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5816,13 @@
         <v>76061</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -5801,13 +5831,13 @@
         <v>71487</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -5816,13 +5846,13 @@
         <v>147547</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5867,13 @@
         <v>96476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -5852,13 +5882,13 @@
         <v>82925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>247</v>
@@ -5867,13 +5897,13 @@
         <v>179401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F87744-4267-4860-BE8A-0B28E605A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A93A0C-E445-458F-817A-F1AC896F5EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A8FB7EA-A47E-4DA4-AEC8-8A8D0329CC60}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7EB7BF5F-2D1A-4550-BFAA-DD8278313951}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1255 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>51,65%</t>
   </si>
   <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>76,89%</t>
   </si>
   <si>
     <t>61,13%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
   </si>
   <si>
     <t>63,26%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
 </sst>
 </file>
@@ -1728,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1770CBA4-FD73-4328-8E2A-DADA5E875850}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F360983B-D0FF-46E1-B968-2A593B134D64}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1846,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>1643</v>
+        <v>10598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1861,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>4862</v>
+        <v>8662</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1876,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>6505</v>
+        <v>19260</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1897,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>3144</v>
+        <v>22220</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1912,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>4832</v>
+        <v>20012</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1927,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>7976</v>
+        <v>42232</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1948,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1963,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2001,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>7019</v>
+        <v>10553</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2016,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>5735</v>
+        <v>19929</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2031,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>12755</v>
+        <v>30481</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2052,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>16868</v>
+        <v>31094</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2067,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>17389</v>
+        <v>21377</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2082,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="N8" s="7">
-        <v>34256</v>
+        <v>52471</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2103,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2118,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2156,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>19929</v>
+        <v>8925</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2171,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>10553</v>
+        <v>15716</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2186,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>30481</v>
+        <v>24640</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2207,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>21377</v>
+        <v>16239</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2222,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>31094</v>
+        <v>19407</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2237,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>52471</v>
+        <v>35646</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2258,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2273,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2311,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>15716</v>
+        <v>11220</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2326,10 +2152,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>8925</v>
+        <v>15037</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2341,10 +2167,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>24640</v>
+        <v>26257</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2362,10 +2188,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>19407</v>
+        <v>14457</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2377,10 +2203,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>16239</v>
+        <v>23780</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2392,10 +2218,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N14" s="7">
-        <v>35646</v>
+        <v>38237</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2413,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2428,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2460,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>15037</v>
+        <v>41295</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7">
+        <v>59343</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11220</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>151</v>
+      </c>
+      <c r="N16" s="7">
+        <v>100638</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>37</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26257</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D17" s="7">
-        <v>23780</v>
+        <v>84010</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>126</v>
+      </c>
+      <c r="I17" s="7">
+        <v>84576</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14457</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>254</v>
+      </c>
+      <c r="N17" s="7">
+        <v>168586</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>53</v>
-      </c>
-      <c r="N17" s="7">
-        <v>38237</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2583,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2614,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>89</v>
-      </c>
-      <c r="D19" s="7">
-        <v>59343</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>62</v>
-      </c>
-      <c r="I19" s="7">
-        <v>41295</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>151</v>
-      </c>
-      <c r="N19" s="7">
-        <v>100638</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>126</v>
-      </c>
-      <c r="D20" s="7">
-        <v>84576</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>128</v>
-      </c>
-      <c r="I20" s="7">
-        <v>84010</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>254</v>
-      </c>
-      <c r="N20" s="7">
-        <v>168586</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2791,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE4AB59-668F-47B8-A369-69447C415401}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642E6EE8-0BBE-43B9-ABD5-C12930A39E3C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2808,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2909,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>15547</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>3342</v>
+        <v>17005</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>3342</v>
+        <v>32552</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>25495</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>4488</v>
+        <v>22341</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="N5" s="7">
-        <v>7140</v>
+        <v>47836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3026,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>7830</v>
+        <v>39346</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>10482</v>
+        <v>80388</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3064,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>17006</v>
+        <v>24842</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>12204</v>
+        <v>18301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>29210</v>
+        <v>43144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>19689</v>
+        <v>27541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I8" s="7">
-        <v>21007</v>
+        <v>33893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N8" s="7">
-        <v>40696</v>
+        <v>61433</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>36695</v>
+        <v>52383</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3181,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>33211</v>
+        <v>52194</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>69906</v>
+        <v>104577</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3222,46 +2892,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>18301</v>
+        <v>17504</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>24842</v>
+        <v>20340</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>43144</v>
+        <v>37844</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>33893</v>
+        <v>25925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>27541</v>
+        <v>30888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>61433</v>
+        <v>56813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
-        <v>52194</v>
+        <v>43429</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3336,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>52383</v>
+        <v>51228</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3351,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>104577</v>
+        <v>94657</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3374,49 +3044,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>20340</v>
+        <v>20818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>17504</v>
+        <v>19552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>37844</v>
+        <v>40370</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>30888</v>
+        <v>29966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>25925</v>
+        <v>30389</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="N14" s="7">
-        <v>56813</v>
+        <v>60355</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7">
-        <v>51228</v>
+        <v>50784</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3491,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>43429</v>
+        <v>49941</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3506,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N15" s="7">
-        <v>94657</v>
+        <v>100725</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3523,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D16" s="7">
-        <v>19552</v>
+        <v>78711</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I16" s="7">
-        <v>20818</v>
+        <v>75199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="N16" s="7">
-        <v>40370</v>
+        <v>153910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="D17" s="7">
-        <v>30389</v>
+        <v>108926</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="I17" s="7">
-        <v>29966</v>
+        <v>117511</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="N17" s="7">
-        <v>60355</v>
+        <v>226437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="D18" s="7">
-        <v>49941</v>
+        <v>187637</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3646,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="I18" s="7">
-        <v>50784</v>
+        <v>192710</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3661,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>135</v>
+        <v>543</v>
       </c>
       <c r="N18" s="7">
-        <v>100725</v>
+        <v>380347</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3677,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>107</v>
-      </c>
-      <c r="D19" s="7">
-        <v>75199</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7">
-        <v>112</v>
-      </c>
-      <c r="I19" s="7">
-        <v>78711</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>219</v>
-      </c>
-      <c r="N19" s="7">
-        <v>153910</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>166</v>
-      </c>
-      <c r="D20" s="7">
-        <v>117511</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7">
-        <v>158</v>
-      </c>
-      <c r="I20" s="7">
-        <v>108926</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="7">
-        <v>324</v>
-      </c>
-      <c r="N20" s="7">
-        <v>226437</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>273</v>
-      </c>
-      <c r="D21" s="7">
-        <v>192710</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>270</v>
-      </c>
-      <c r="I21" s="7">
-        <v>187637</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>543</v>
-      </c>
-      <c r="N21" s="7">
-        <v>380347</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3854,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE313143-768A-41BF-9F4F-D75C2323C57F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4539285F-24ED-4800-ABB9-00BBC4A90F45}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3871,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>1003</v>
+        <v>11823</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>1203</v>
+        <v>6634</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>2205</v>
+        <v>18457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>3509</v>
+        <v>20241</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>6479</v>
+        <v>21345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>9989</v>
+        <v>41586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>4512</v>
+        <v>32064</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4089,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>7682</v>
+        <v>27979</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>12194</v>
+        <v>60043</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4127,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>5631</v>
+        <v>18997</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>10621</v>
+        <v>19969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N7" s="7">
-        <v>16252</v>
+        <v>38966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7">
-        <v>17836</v>
+        <v>34421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>13761</v>
+        <v>29792</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="N8" s="7">
-        <v>31597</v>
+        <v>64213</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>23467</v>
+        <v>53418</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4244,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>24382</v>
+        <v>49761</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="N9" s="7">
-        <v>47849</v>
+        <v>103179</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4282,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>19969</v>
+        <v>14015</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>18997</v>
+        <v>14366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>38966</v>
+        <v>28381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>29792</v>
+        <v>19933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>34421</v>
+        <v>18008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>64213</v>
+        <v>37942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>49761</v>
+        <v>33948</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4399,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>53418</v>
+        <v>32374</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>103179</v>
+        <v>66323</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4437,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>14366</v>
+        <v>18336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>14015</v>
+        <v>13184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>28381</v>
+        <v>31520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>18008</v>
+        <v>25494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>19933</v>
+        <v>24086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>37942</v>
+        <v>49580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>32374</v>
+        <v>43830</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4554,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I15" s="7">
-        <v>33948</v>
+        <v>37270</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N15" s="7">
-        <v>66323</v>
+        <v>81100</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4586,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>13184</v>
+        <v>63172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7">
-        <v>18336</v>
+        <v>54153</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="N16" s="7">
-        <v>31520</v>
+        <v>117324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="D17" s="7">
-        <v>24086</v>
+        <v>100087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I17" s="7">
-        <v>25494</v>
+        <v>93232</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="N17" s="7">
-        <v>49580</v>
+        <v>193321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="D18" s="7">
-        <v>37270</v>
+        <v>163259</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4709,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="I18" s="7">
-        <v>43830</v>
+        <v>147385</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>112</v>
+        <v>460</v>
       </c>
       <c r="N18" s="7">
-        <v>81100</v>
+        <v>310645</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4740,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7">
-        <v>54153</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" s="7">
-        <v>97</v>
-      </c>
-      <c r="I19" s="7">
-        <v>63172</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M19" s="7">
-        <v>177</v>
-      </c>
-      <c r="N19" s="7">
-        <v>117324</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>134</v>
-      </c>
-      <c r="D20" s="7">
-        <v>93232</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="7">
-        <v>149</v>
-      </c>
-      <c r="I20" s="7">
-        <v>100087</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M20" s="7">
-        <v>283</v>
-      </c>
-      <c r="N20" s="7">
-        <v>193321</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>147385</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>246</v>
-      </c>
-      <c r="I21" s="7">
-        <v>163259</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>460</v>
-      </c>
-      <c r="N21" s="7">
-        <v>310645</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4917,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F6ED24-4AA5-4999-A625-975F1E477D46}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E3F6E8-A754-4694-8F06-61FA23EBEF8E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4934,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5035,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>1019</v>
+        <v>10452</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1021</v>
+        <v>7768</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>2040</v>
+        <v>18220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>3148</v>
+        <v>15389</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>5191</v>
+        <v>19892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>8338</v>
+        <v>35281</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5152,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5167,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5190,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>6527</v>
+        <v>18045</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>9503</v>
+        <v>29501</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>16030</v>
+        <v>47547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>15077</v>
+        <v>26197</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I8" s="7">
-        <v>9820</v>
+        <v>34308</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="N8" s="7">
-        <v>24897</v>
+        <v>60504</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5307,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5322,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5345,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>28209</v>
+        <v>28899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>17404</v>
+        <v>26660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>45613</v>
+        <v>55559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>32636</v>
+        <v>48172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>22769</v>
+        <v>30263</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>55405</v>
+        <v>78435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5462,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5477,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5500,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>24575</v>
+        <v>14120</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>29341</v>
+        <v>16167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>53916</v>
+        <v>30287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>28919</v>
+        <v>16441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>28554</v>
+        <v>17642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N14" s="7">
-        <v>57472</v>
+        <v>34083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5617,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5632,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5649,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>15731</v>
+        <v>71517</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>14218</v>
+        <v>80096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="N16" s="7">
-        <v>29949</v>
+        <v>151613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7">
-        <v>16696</v>
+        <v>106198</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="I17" s="7">
-        <v>16591</v>
+        <v>102105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="N17" s="7">
-        <v>33288</v>
+        <v>208303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5772,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5787,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5803,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>115</v>
-      </c>
-      <c r="D19" s="7">
-        <v>76061</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H19" s="7">
-        <v>114</v>
-      </c>
-      <c r="I19" s="7">
-        <v>71487</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="M19" s="7">
-        <v>229</v>
-      </c>
-      <c r="N19" s="7">
-        <v>147547</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>135</v>
-      </c>
-      <c r="D20" s="7">
-        <v>96476</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H20" s="7">
-        <v>112</v>
-      </c>
-      <c r="I20" s="7">
-        <v>82925</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M20" s="7">
-        <v>247</v>
-      </c>
-      <c r="N20" s="7">
-        <v>179401</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>250</v>
-      </c>
-      <c r="D21" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>226</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>476</v>
-      </c>
-      <c r="N21" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
